--- a/E2M2-2019/2019-applications/Applicants-All Applicants-Final-Rooms.xlsx
+++ b/E2M2-2019/2019-applications/Applicants-All Applicants-Final-Rooms.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11015"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11110"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/caraebrook/Documents/R/R_repositories/E2M2/E2M2-2019/2019-applications/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A068A7F7-52AA-E743-BF7B-E4363DEFADC8}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{605036C5-DE9E-5946-AAD8-DB4BCCDAB607}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="12080" yWindow="940" windowWidth="15580" windowHeight="15100" xr2:uid="{059FB55E-9B44-5042-8240-C34B63525F93}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="817" uniqueCount="288">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="783" uniqueCount="291">
   <si>
     <t>Last Name</t>
   </si>
@@ -524,30 +524,6 @@
     <t>English</t>
   </si>
   <si>
-    <t>SOAZAFY</t>
-  </si>
-  <si>
-    <t>Marie Rolande</t>
-  </si>
-  <si>
-    <t>rolandesoa@yahoo.fr</t>
-  </si>
-  <si>
-    <t>Ambatomitraka lot N14 secteur 03 Antalaha, rue de Vohemar</t>
-  </si>
-  <si>
-    <t>Temporary teacher + University center in SAVA region</t>
-  </si>
-  <si>
-    <t>(1) Higher and specialized degree in Integrated Management of Forests and Tropical Territories, 2015,  ERAIFT School in Democratic Republic of Congo
-(2) Master's degree in the valuation of plant biodiversity, 2014, University of Mahajanga
-(3) Bachelor degree of Science in Life and Environment, 2012, University of Mahajanga</t>
-  </si>
-  <si>
-    <t>I started learning english in ELCI ( English Language Course Institute) at University of Mahajanga during 3 years from 2011 untill 2013.
-Then since 2017 until now, I work in the diversity turn project with english as a communication langage and I attended a local course of english in English club Antalaha from 2017 until 2018.</t>
-  </si>
-  <si>
     <t>Mc Antonin</t>
   </si>
   <si>
@@ -572,25 +548,6 @@
     <t>Particular cours, Read books and Articles</t>
   </si>
   <si>
-    <t>Tahina Mickaella</t>
-  </si>
-  <si>
-    <t>mickamiella@gmail.com</t>
-  </si>
-  <si>
-    <t>Lot VT 85 NE Andohanimandroseza- Tana 101</t>
-  </si>
-  <si>
-    <t>Doctor in Human Medecine</t>
-  </si>
-  <si>
-    <t>State Doctor in human Medecine, 2018</t>
-  </si>
-  <si>
-    <t>Advanced2 Certificate, 2013
-English Teachear in an English Club, 2014</t>
-  </si>
-  <si>
     <t>Advanced</t>
   </si>
   <si>
@@ -906,12 +863,6 @@
     <t xml:space="preserve">Calistus </t>
   </si>
   <si>
-    <t>4 rooms of 4 + 1 room of 6 (1 extra spaces)</t>
-  </si>
-  <si>
-    <t>2 rooms of 6 (1 extra spaces)</t>
-  </si>
-  <si>
     <t>CVB - full station fees</t>
   </si>
   <si>
@@ -922,6 +873,60 @@
   </si>
   <si>
     <t>CVB - total for coffee break</t>
+  </si>
+  <si>
+    <t>3 rooms of 6 (1 extra space)</t>
+  </si>
+  <si>
+    <t>3 rooms of 4 (1 extra space)</t>
+  </si>
+  <si>
+    <t>rantsohasina@yahoo.com</t>
+  </si>
+  <si>
+    <t>soafy@pasteur.mg</t>
+  </si>
+  <si>
+    <t>elimanambina@gmail.com</t>
+  </si>
+  <si>
+    <t>jean.marius.g@gmail.com</t>
+  </si>
+  <si>
+    <t>sederamioramalala@gmail.com</t>
+  </si>
+  <si>
+    <t>onialisoarakotoarivelo@yahoo.com</t>
+  </si>
+  <si>
+    <t>cbrook@bekeley.edu</t>
+  </si>
+  <si>
+    <t>f.rasambainarivo@gmail.com</t>
+  </si>
+  <si>
+    <t>amywesolowski@gmail.com</t>
+  </si>
+  <si>
+    <t>juliorakotonirina@yahoo.fr</t>
+  </si>
+  <si>
+    <t>andres.garchitorena@gmail.com</t>
+  </si>
+  <si>
+    <t>gammarinema@gmail.com</t>
+  </si>
+  <si>
+    <t>benjaminrice@g.harvard.edu</t>
+  </si>
+  <si>
+    <t>sarah_guth@berkeley.edu</t>
+  </si>
+  <si>
+    <t>Etoomey11@gmail.com</t>
+  </si>
+  <si>
+    <t>calistusnn@ufl.edu</t>
   </si>
 </sst>
 </file>
@@ -968,7 +973,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -978,12 +983,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.59999389629810485"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1007,7 +1006,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
@@ -1015,9 +1014,10 @@
     <xf numFmtId="11" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1333,11 +1333,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{25E0942A-4028-CC42-AE0F-9A0C6E31F8F1}">
-  <dimension ref="A1:AF52"/>
+  <dimension ref="A1:AF50"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A21" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="K38" sqref="K38"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="I50" sqref="I50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1359,19 +1359,19 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>266</v>
+        <v>253</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>265</v>
+        <v>252</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>277</v>
+        <v>264</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>286</v>
+        <v>271</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>268</v>
+        <v>255</v>
       </c>
       <c r="H1" s="1" t="s">
         <v>7</v>
@@ -1451,242 +1451,254 @@
     </row>
     <row r="2" spans="1:32" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
-        <v>188</v>
+        <v>175</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>267</v>
+        <v>254</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>254</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>278</v>
+        <v>266</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>279</v>
+        <v>254</v>
       </c>
       <c r="H2" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="I2" s="2" t="s">
-        <v>175</v>
+      <c r="I2" s="7" t="s">
+        <v>177</v>
       </c>
       <c r="J2" s="4">
         <v>261000000000</v>
       </c>
       <c r="K2" s="3">
-        <v>33806</v>
+        <v>35949</v>
       </c>
       <c r="L2" s="2" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="M2" s="2" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="N2" s="2" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="O2" s="2" t="s">
-        <v>51</v>
+        <v>35</v>
       </c>
       <c r="Q2" s="2" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="R2" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="S2" s="2" t="s">
-        <v>54</v>
+        <v>38</v>
       </c>
       <c r="T2" s="2" t="s">
         <v>38</v>
       </c>
       <c r="U2" s="2" t="s">
-        <v>54</v>
+        <v>38</v>
       </c>
       <c r="V2" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="X2" s="2" t="s">
-        <v>40</v>
+        <v>168</v>
       </c>
       <c r="Y2" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="Z2" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="AA2" s="2" t="s">
         <v>42</v>
       </c>
       <c r="AB2" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="AC2" s="2" t="s">
         <v>42</v>
       </c>
       <c r="AD2" s="2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="AE2" s="2" t="s">
-        <v>57</v>
+        <v>41</v>
       </c>
       <c r="AF2" s="2" t="s">
-        <v>57</v>
+        <v>41</v>
       </c>
     </row>
     <row r="3" spans="1:32" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
-        <v>188</v>
+        <v>263</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>189</v>
+        <v>160</v>
       </c>
       <c r="C3" s="2" t="s">
+        <v>254</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>254</v>
+      </c>
+      <c r="E3" s="2" t="s">
         <v>267</v>
       </c>
-      <c r="D3" s="2" t="s">
-        <v>267</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>279</v>
-      </c>
       <c r="F3" s="2" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="I3" s="8" t="s">
-        <v>190</v>
-      </c>
-      <c r="J3" s="4">
-        <v>261000000000</v>
+        <v>49</v>
+      </c>
+      <c r="I3" s="7" t="s">
+        <v>161</v>
+      </c>
+      <c r="J3" s="2">
+        <v>1.0000061149999999</v>
       </c>
       <c r="K3" s="3">
-        <v>35949</v>
+        <v>33490</v>
       </c>
       <c r="L3" s="2" t="s">
-        <v>191</v>
+        <v>162</v>
       </c>
       <c r="M3" s="2" t="s">
-        <v>192</v>
+        <v>163</v>
       </c>
       <c r="N3" s="2" t="s">
-        <v>193</v>
+        <v>164</v>
       </c>
       <c r="O3" s="2" t="s">
         <v>35</v>
       </c>
+      <c r="P3" s="2" t="s">
+        <v>165</v>
+      </c>
       <c r="Q3" s="2" t="s">
-        <v>194</v>
+        <v>166</v>
       </c>
       <c r="R3" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="S3" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="T3" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="U3" s="2" t="s">
-        <v>38</v>
+        <v>54</v>
       </c>
       <c r="V3" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="X3" s="2" t="s">
-        <v>181</v>
+        <v>40</v>
       </c>
       <c r="Y3" s="2" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="Z3" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="AA3" s="2" t="s">
         <v>42</v>
       </c>
       <c r="AB3" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="AC3" s="2" t="s">
         <v>42</v>
       </c>
       <c r="AD3" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="AE3" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="AE3" s="2" t="s">
-        <v>41</v>
-      </c>
       <c r="AF3" s="2" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
     </row>
     <row r="4" spans="1:32" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
-        <v>276</v>
+        <v>143</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>167</v>
+        <v>144</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>254</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>254</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>280</v>
+        <v>267</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>279</v>
+        <v>266</v>
       </c>
       <c r="H4" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="I4" s="8" t="s">
-        <v>168</v>
-      </c>
-      <c r="J4" s="2">
-        <v>1.0000061149999999</v>
+      <c r="I4" s="7" t="s">
+        <v>145</v>
+      </c>
+      <c r="J4" s="4">
+        <v>261000000000</v>
       </c>
       <c r="K4" s="3">
-        <v>33490</v>
+        <v>33440</v>
       </c>
       <c r="L4" s="2" t="s">
-        <v>169</v>
+        <v>146</v>
       </c>
       <c r="M4" s="2" t="s">
-        <v>170</v>
+        <v>147</v>
       </c>
       <c r="N4" s="2" t="s">
-        <v>171</v>
+        <v>148</v>
       </c>
       <c r="O4" s="2" t="s">
-        <v>35</v>
+        <v>51</v>
       </c>
       <c r="P4" s="2" t="s">
-        <v>172</v>
+        <v>149</v>
       </c>
       <c r="Q4" s="2" t="s">
-        <v>173</v>
+        <v>150</v>
       </c>
       <c r="R4" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="S4" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="T4" s="2" t="s">
-        <v>39</v>
+        <v>55</v>
       </c>
       <c r="U4" s="2" t="s">
         <v>54</v>
       </c>
       <c r="V4" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="X4" s="2" t="s">
         <v>40</v>
       </c>
       <c r="Y4" s="2" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="Z4" s="2" t="s">
         <v>42</v>
@@ -1695,13 +1707,13 @@
         <v>42</v>
       </c>
       <c r="AB4" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="AC4" s="2" t="s">
         <v>42</v>
       </c>
       <c r="AD4" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="AE4" s="2" t="s">
         <v>43</v>
@@ -1712,52 +1724,52 @@
     </row>
     <row r="5" spans="1:32" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
-        <v>143</v>
+        <v>126</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>144</v>
+        <v>127</v>
       </c>
       <c r="C5" s="2" t="s">
+        <v>254</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>254</v>
+      </c>
+      <c r="E5" s="2" t="s">
         <v>267</v>
       </c>
-      <c r="D5" s="2" t="s">
-        <v>267</v>
-      </c>
-      <c r="E5" s="2" t="s">
-        <v>280</v>
-      </c>
       <c r="F5" s="2" t="s">
-        <v>279</v>
+        <v>266</v>
       </c>
       <c r="H5" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="I5" s="2" t="s">
-        <v>145</v>
-      </c>
-      <c r="J5" s="4">
-        <v>261000000000</v>
+      <c r="I5" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="J5" s="2" t="s">
+        <v>129</v>
       </c>
       <c r="K5" s="3">
-        <v>33440</v>
+        <v>33525</v>
       </c>
       <c r="L5" s="2" t="s">
-        <v>146</v>
+        <v>130</v>
       </c>
       <c r="M5" s="2" t="s">
-        <v>147</v>
+        <v>131</v>
       </c>
       <c r="N5" s="2" t="s">
-        <v>148</v>
+        <v>132</v>
       </c>
       <c r="O5" s="2" t="s">
         <v>51</v>
       </c>
       <c r="P5" s="2" t="s">
-        <v>149</v>
+        <v>42</v>
       </c>
       <c r="Q5" s="2" t="s">
-        <v>150</v>
+        <v>133</v>
       </c>
       <c r="R5" s="2" t="s">
         <v>38</v>
@@ -1766,16 +1778,19 @@
         <v>38</v>
       </c>
       <c r="T5" s="2" t="s">
-        <v>55</v>
+        <v>38</v>
       </c>
       <c r="U5" s="2" t="s">
         <v>54</v>
       </c>
       <c r="V5" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
+      </c>
+      <c r="W5" s="2" t="s">
+        <v>134</v>
       </c>
       <c r="X5" s="2" t="s">
-        <v>40</v>
+        <v>56</v>
       </c>
       <c r="Y5" s="2" t="s">
         <v>41</v>
@@ -1787,13 +1802,13 @@
         <v>42</v>
       </c>
       <c r="AB5" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="AC5" s="2" t="s">
         <v>42</v>
       </c>
       <c r="AD5" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="AE5" s="2" t="s">
         <v>43</v>
@@ -1804,58 +1819,55 @@
     </row>
     <row r="6" spans="1:32" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
-        <v>126</v>
+        <v>256</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>127</v>
+        <v>135</v>
       </c>
       <c r="C6" s="2" t="s">
+        <v>254</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>254</v>
+      </c>
+      <c r="E6" s="2" t="s">
         <v>267</v>
       </c>
-      <c r="D6" s="2" t="s">
-        <v>267</v>
-      </c>
-      <c r="E6" s="2" t="s">
-        <v>280</v>
-      </c>
       <c r="F6" s="2" t="s">
-        <v>279</v>
+        <v>266</v>
       </c>
       <c r="H6" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="I6" s="2" t="s">
-        <v>128</v>
+      <c r="I6" s="7" t="s">
+        <v>136</v>
       </c>
       <c r="J6" s="2" t="s">
-        <v>129</v>
+        <v>137</v>
       </c>
       <c r="K6" s="3">
-        <v>33525</v>
+        <v>32554</v>
       </c>
       <c r="L6" s="2" t="s">
-        <v>130</v>
+        <v>138</v>
       </c>
       <c r="M6" s="2" t="s">
-        <v>131</v>
+        <v>139</v>
       </c>
       <c r="N6" s="2" t="s">
-        <v>132</v>
+        <v>140</v>
       </c>
       <c r="O6" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="P6" s="2" t="s">
-        <v>42</v>
-      </c>
       <c r="Q6" s="2" t="s">
-        <v>133</v>
+        <v>141</v>
       </c>
       <c r="R6" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="S6" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="T6" s="2" t="s">
         <v>38</v>
@@ -1864,16 +1876,16 @@
         <v>54</v>
       </c>
       <c r="V6" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="W6" s="2" t="s">
-        <v>134</v>
+        <v>142</v>
       </c>
       <c r="X6" s="2" t="s">
         <v>56</v>
       </c>
       <c r="Y6" s="2" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="Z6" s="2" t="s">
         <v>42</v>
@@ -1894,72 +1906,72 @@
         <v>43</v>
       </c>
       <c r="AF6" s="2" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="7" spans="1:32" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
-        <v>269</v>
+        <v>118</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>135</v>
+        <v>119</v>
       </c>
       <c r="C7" s="2" t="s">
+        <v>254</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>254</v>
+      </c>
+      <c r="E7" s="2" t="s">
         <v>267</v>
       </c>
-      <c r="D7" s="2" t="s">
-        <v>267</v>
-      </c>
-      <c r="E7" s="2" t="s">
-        <v>280</v>
-      </c>
       <c r="F7" s="2" t="s">
-        <v>279</v>
+        <v>266</v>
       </c>
       <c r="H7" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="I7" s="2" t="s">
-        <v>136</v>
-      </c>
-      <c r="J7" s="2" t="s">
-        <v>137</v>
+      <c r="I7" s="7" t="s">
+        <v>120</v>
+      </c>
+      <c r="J7" s="4">
+        <v>261000000000</v>
       </c>
       <c r="K7" s="3">
-        <v>32554</v>
+        <v>33627</v>
       </c>
       <c r="L7" s="2" t="s">
-        <v>138</v>
+        <v>121</v>
       </c>
       <c r="M7" s="2" t="s">
-        <v>139</v>
+        <v>122</v>
       </c>
       <c r="N7" s="2" t="s">
-        <v>140</v>
+        <v>123</v>
       </c>
       <c r="O7" s="2" t="s">
-        <v>51</v>
+        <v>35</v>
+      </c>
+      <c r="P7" s="2" t="s">
+        <v>124</v>
       </c>
       <c r="Q7" s="2" t="s">
-        <v>141</v>
+        <v>125</v>
       </c>
       <c r="R7" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="S7" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="T7" s="2" t="s">
-        <v>38</v>
+        <v>55</v>
       </c>
       <c r="U7" s="2" t="s">
-        <v>54</v>
+        <v>38</v>
       </c>
       <c r="V7" s="2" t="s">
         <v>38</v>
-      </c>
-      <c r="W7" s="2" t="s">
-        <v>142</v>
       </c>
       <c r="X7" s="2" t="s">
         <v>56</v>
@@ -1974,13 +1986,13 @@
         <v>42</v>
       </c>
       <c r="AB7" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="AC7" s="2" t="s">
         <v>42</v>
       </c>
       <c r="AD7" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="AE7" s="2" t="s">
         <v>43</v>
@@ -1991,67 +2003,67 @@
     </row>
     <row r="8" spans="1:32" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
-        <v>118</v>
+        <v>44</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>119</v>
+        <v>45</v>
       </c>
       <c r="C8" s="2" t="s">
+        <v>254</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>254</v>
+      </c>
+      <c r="E8" s="2" t="s">
         <v>267</v>
       </c>
-      <c r="D8" s="2" t="s">
-        <v>267</v>
-      </c>
-      <c r="E8" s="2" t="s">
-        <v>280</v>
-      </c>
       <c r="F8" s="2" t="s">
-        <v>279</v>
+        <v>266</v>
       </c>
       <c r="H8" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="I8" s="2" t="s">
-        <v>120</v>
+      <c r="I8" s="7" t="s">
+        <v>46</v>
       </c>
       <c r="J8" s="4">
         <v>261000000000</v>
       </c>
       <c r="K8" s="3">
-        <v>33627</v>
+        <v>33303</v>
       </c>
       <c r="L8" s="2" t="s">
-        <v>121</v>
+        <v>47</v>
       </c>
       <c r="M8" s="2" t="s">
-        <v>122</v>
+        <v>48</v>
       </c>
       <c r="N8" s="2" t="s">
-        <v>123</v>
+        <v>50</v>
       </c>
       <c r="O8" s="2" t="s">
-        <v>35</v>
+        <v>51</v>
       </c>
       <c r="P8" s="2" t="s">
-        <v>124</v>
+        <v>52</v>
       </c>
       <c r="Q8" s="2" t="s">
-        <v>125</v>
+        <v>53</v>
       </c>
       <c r="R8" s="2" t="s">
         <v>38</v>
       </c>
       <c r="S8" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="T8" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="U8" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="V8" s="2" t="s">
         <v>55</v>
-      </c>
-      <c r="U8" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="V8" s="2" t="s">
-        <v>38</v>
       </c>
       <c r="X8" s="2" t="s">
         <v>56</v>
@@ -2060,7 +2072,7 @@
         <v>43</v>
       </c>
       <c r="Z8" s="2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="AA8" s="2" t="s">
         <v>42</v>
@@ -2078,93 +2090,96 @@
         <v>43</v>
       </c>
       <c r="AF8" s="2" t="s">
-        <v>41</v>
+        <v>57</v>
       </c>
     </row>
     <row r="9" spans="1:32" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A9" s="2" t="s">
-        <v>44</v>
+        <v>151</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>267</v>
-      </c>
-      <c r="D9" s="2" t="s">
-        <v>267</v>
-      </c>
-      <c r="E9" s="2" t="s">
-        <v>280</v>
+        <v>152</v>
+      </c>
+      <c r="C9" s="8" t="s">
+        <v>254</v>
+      </c>
+      <c r="D9" s="8" t="s">
+        <v>254</v>
+      </c>
+      <c r="E9" s="8" t="s">
+        <v>265</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>279</v>
+        <v>266</v>
       </c>
       <c r="H9" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="I9" s="2" t="s">
-        <v>46</v>
+        <v>33</v>
+      </c>
+      <c r="I9" s="7" t="s">
+        <v>153</v>
       </c>
       <c r="J9" s="4">
         <v>261000000000</v>
       </c>
       <c r="K9" s="3">
-        <v>33303</v>
+        <v>34990</v>
       </c>
       <c r="L9" s="2" t="s">
-        <v>47</v>
+        <v>154</v>
       </c>
       <c r="M9" s="2" t="s">
-        <v>48</v>
+        <v>155</v>
       </c>
       <c r="N9" s="2" t="s">
-        <v>50</v>
+        <v>156</v>
       </c>
       <c r="O9" s="2" t="s">
-        <v>51</v>
+        <v>35</v>
       </c>
       <c r="P9" s="2" t="s">
-        <v>52</v>
+        <v>157</v>
       </c>
       <c r="Q9" s="2" t="s">
-        <v>53</v>
+        <v>158</v>
       </c>
       <c r="R9" s="2" t="s">
         <v>38</v>
       </c>
       <c r="S9" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="T9" s="2" t="s">
-        <v>38</v>
+        <v>55</v>
       </c>
       <c r="U9" s="2" t="s">
         <v>54</v>
       </c>
       <c r="V9" s="2" t="s">
-        <v>55</v>
+        <v>38</v>
+      </c>
+      <c r="W9" s="2" t="s">
+        <v>159</v>
       </c>
       <c r="X9" s="2" t="s">
-        <v>56</v>
+        <v>40</v>
       </c>
       <c r="Y9" s="2" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="Z9" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="AA9" s="2" t="s">
         <v>42</v>
       </c>
       <c r="AB9" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="AC9" s="2" t="s">
         <v>42</v>
       </c>
       <c r="AD9" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="AE9" s="2" t="s">
         <v>43</v>
@@ -2175,70 +2190,64 @@
     </row>
     <row r="10" spans="1:32" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A10" s="2" t="s">
-        <v>151</v>
+        <v>95</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>152</v>
-      </c>
-      <c r="C10" s="9" t="s">
-        <v>267</v>
-      </c>
-      <c r="D10" s="9" t="s">
-        <v>267</v>
-      </c>
-      <c r="E10" s="9" t="s">
-        <v>278</v>
+        <v>96</v>
+      </c>
+      <c r="C10" s="8" t="s">
+        <v>254</v>
+      </c>
+      <c r="D10" s="8" t="s">
+        <v>254</v>
+      </c>
+      <c r="E10" s="8" t="s">
+        <v>265</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>279</v>
+        <v>266</v>
       </c>
       <c r="H10" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="I10" s="2" t="s">
-        <v>153</v>
+      <c r="I10" s="7" t="s">
+        <v>97</v>
       </c>
       <c r="J10" s="4">
         <v>261000000000</v>
       </c>
       <c r="K10" s="3">
-        <v>34990</v>
+        <v>33834</v>
       </c>
       <c r="L10" s="2" t="s">
-        <v>154</v>
+        <v>98</v>
       </c>
       <c r="M10" s="2" t="s">
-        <v>155</v>
+        <v>99</v>
       </c>
       <c r="N10" s="2" t="s">
-        <v>156</v>
+        <v>100</v>
       </c>
       <c r="O10" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="P10" s="2" t="s">
-        <v>157</v>
-      </c>
       <c r="Q10" s="2" t="s">
-        <v>158</v>
+        <v>101</v>
       </c>
       <c r="R10" s="2" t="s">
-        <v>38</v>
+        <v>54</v>
       </c>
       <c r="S10" s="2" t="s">
-        <v>38</v>
+        <v>54</v>
       </c>
       <c r="T10" s="2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="U10" s="2" t="s">
         <v>54</v>
       </c>
       <c r="V10" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="W10" s="2" t="s">
-        <v>159</v>
+        <v>54</v>
       </c>
       <c r="X10" s="2" t="s">
         <v>40</v>
@@ -2265,69 +2274,72 @@
         <v>43</v>
       </c>
       <c r="AF10" s="2" t="s">
-        <v>57</v>
+        <v>43</v>
       </c>
     </row>
     <row r="11" spans="1:32" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A11" s="2" t="s">
-        <v>95</v>
+        <v>27</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="C11" s="9" t="s">
-        <v>267</v>
-      </c>
-      <c r="D11" s="9" t="s">
-        <v>267</v>
-      </c>
-      <c r="E11" s="9" t="s">
-        <v>278</v>
+        <v>28</v>
+      </c>
+      <c r="C11" s="8" t="s">
+        <v>254</v>
+      </c>
+      <c r="D11" s="8" t="s">
+        <v>254</v>
+      </c>
+      <c r="E11" s="8" t="s">
+        <v>265</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>279</v>
+        <v>266</v>
       </c>
       <c r="H11" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="I11" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="J11" s="4">
-        <v>261000000000</v>
+      <c r="I11" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="J11" s="2" t="s">
+        <v>30</v>
       </c>
       <c r="K11" s="3">
-        <v>33834</v>
+        <v>43192</v>
       </c>
       <c r="L11" s="2" t="s">
-        <v>98</v>
+        <v>31</v>
       </c>
       <c r="M11" s="2" t="s">
-        <v>99</v>
+        <v>32</v>
       </c>
       <c r="N11" s="2" t="s">
-        <v>100</v>
+        <v>34</v>
       </c>
       <c r="O11" s="2" t="s">
         <v>35</v>
       </c>
+      <c r="P11" s="2" t="s">
+        <v>36</v>
+      </c>
       <c r="Q11" s="2" t="s">
-        <v>101</v>
+        <v>37</v>
       </c>
       <c r="R11" s="2" t="s">
-        <v>54</v>
+        <v>38</v>
       </c>
       <c r="S11" s="2" t="s">
-        <v>54</v>
+        <v>38</v>
       </c>
       <c r="T11" s="2" t="s">
-        <v>54</v>
+        <v>38</v>
       </c>
       <c r="U11" s="2" t="s">
-        <v>54</v>
+        <v>39</v>
       </c>
       <c r="V11" s="2" t="s">
-        <v>54</v>
+        <v>39</v>
       </c>
       <c r="X11" s="2" t="s">
         <v>40</v>
@@ -2359,58 +2371,58 @@
     </row>
     <row r="12" spans="1:32" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A12" s="2" t="s">
-        <v>27</v>
+        <v>64</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="C12" s="9" t="s">
+        <v>65</v>
+      </c>
+      <c r="C12" s="8" t="s">
+        <v>254</v>
+      </c>
+      <c r="D12" s="8" t="s">
+        <v>254</v>
+      </c>
+      <c r="E12" s="2" t="s">
         <v>267</v>
       </c>
-      <c r="D12" s="9" t="s">
-        <v>267</v>
-      </c>
-      <c r="E12" s="9" t="s">
-        <v>278</v>
-      </c>
       <c r="F12" s="2" t="s">
-        <v>279</v>
+        <v>266</v>
       </c>
       <c r="H12" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="I12" s="2" t="s">
-        <v>29</v>
+        <v>49</v>
+      </c>
+      <c r="I12" s="7" t="s">
+        <v>66</v>
       </c>
       <c r="J12" s="2" t="s">
-        <v>30</v>
+        <v>67</v>
       </c>
       <c r="K12" s="3">
-        <v>43192</v>
+        <v>30846</v>
       </c>
       <c r="L12" s="2" t="s">
-        <v>31</v>
+        <v>68</v>
       </c>
       <c r="M12" s="2" t="s">
-        <v>32</v>
+        <v>69</v>
       </c>
       <c r="N12" s="2" t="s">
-        <v>34</v>
+        <v>70</v>
       </c>
       <c r="O12" s="2" t="s">
-        <v>35</v>
+        <v>51</v>
       </c>
       <c r="P12" s="2" t="s">
-        <v>36</v>
+        <v>71</v>
       </c>
       <c r="Q12" s="2" t="s">
-        <v>37</v>
+        <v>72</v>
       </c>
       <c r="R12" s="2" t="s">
-        <v>38</v>
+        <v>55</v>
       </c>
       <c r="S12" s="2" t="s">
-        <v>38</v>
+        <v>55</v>
       </c>
       <c r="T12" s="2" t="s">
         <v>38</v>
@@ -2451,58 +2463,55 @@
     </row>
     <row r="13" spans="1:32" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A13" s="2" t="s">
-        <v>64</v>
+        <v>88</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="C13" s="9" t="s">
+        <v>89</v>
+      </c>
+      <c r="C13" s="8" t="s">
+        <v>254</v>
+      </c>
+      <c r="D13" s="8" t="s">
+        <v>254</v>
+      </c>
+      <c r="E13" s="2" t="s">
         <v>267</v>
       </c>
-      <c r="D13" s="9" t="s">
-        <v>267</v>
-      </c>
-      <c r="E13" s="2" t="s">
-        <v>280</v>
-      </c>
       <c r="F13" s="2" t="s">
-        <v>279</v>
+        <v>266</v>
       </c>
       <c r="H13" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="I13" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="J13" s="2" t="s">
-        <v>67</v>
+      <c r="I13" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="J13" s="4">
+        <v>261000000000</v>
       </c>
       <c r="K13" s="3">
-        <v>30846</v>
+        <v>30974</v>
       </c>
       <c r="L13" s="2" t="s">
-        <v>68</v>
+        <v>91</v>
       </c>
       <c r="M13" s="2" t="s">
-        <v>69</v>
+        <v>92</v>
       </c>
       <c r="N13" s="2" t="s">
-        <v>70</v>
+        <v>93</v>
       </c>
       <c r="O13" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="P13" s="2" t="s">
-        <v>71</v>
+        <v>35</v>
       </c>
       <c r="Q13" s="2" t="s">
-        <v>72</v>
+        <v>94</v>
       </c>
       <c r="R13" s="2" t="s">
-        <v>55</v>
+        <v>38</v>
       </c>
       <c r="S13" s="2" t="s">
-        <v>55</v>
+        <v>38</v>
       </c>
       <c r="T13" s="2" t="s">
         <v>38</v>
@@ -2511,10 +2520,10 @@
         <v>39</v>
       </c>
       <c r="V13" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="X13" s="2" t="s">
-        <v>40</v>
+        <v>56</v>
       </c>
       <c r="Y13" s="2" t="s">
         <v>41</v>
@@ -2543,49 +2552,49 @@
     </row>
     <row r="14" spans="1:32" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A14" s="2" t="s">
-        <v>88</v>
+        <v>169</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="C14" s="9" t="s">
-        <v>267</v>
-      </c>
-      <c r="D14" s="9" t="s">
-        <v>267</v>
+        <v>170</v>
+      </c>
+      <c r="C14" s="8" t="s">
+        <v>254</v>
+      </c>
+      <c r="D14" s="8" t="s">
+        <v>254</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>280</v>
+        <v>266</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>279</v>
+        <v>254</v>
       </c>
       <c r="H14" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="I14" s="2" t="s">
-        <v>90</v>
+        <v>33</v>
+      </c>
+      <c r="I14" s="7" t="s">
+        <v>171</v>
       </c>
       <c r="J14" s="4">
         <v>261000000000</v>
       </c>
       <c r="K14" s="3">
-        <v>30974</v>
+        <v>34623</v>
       </c>
       <c r="L14" s="2" t="s">
-        <v>91</v>
+        <v>172</v>
       </c>
       <c r="M14" s="2" t="s">
-        <v>92</v>
+        <v>155</v>
       </c>
       <c r="N14" s="2" t="s">
-        <v>93</v>
+        <v>173</v>
       </c>
       <c r="O14" s="2" t="s">
         <v>35</v>
       </c>
       <c r="Q14" s="2" t="s">
-        <v>94</v>
+        <v>174</v>
       </c>
       <c r="R14" s="2" t="s">
         <v>38</v>
@@ -2597,7 +2606,7 @@
         <v>38</v>
       </c>
       <c r="U14" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="V14" s="2" t="s">
         <v>38</v>
@@ -2606,179 +2615,182 @@
         <v>56</v>
       </c>
       <c r="Y14" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="Z14" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="Z14" s="2" t="s">
-        <v>42</v>
-      </c>
       <c r="AA14" s="2" t="s">
         <v>42</v>
       </c>
       <c r="AB14" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="AC14" s="2" t="s">
         <v>42</v>
       </c>
       <c r="AD14" s="2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="AE14" s="2" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="AF14" s="2" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="15" spans="1:32" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A15" s="2" t="s">
-        <v>182</v>
+        <v>258</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>183</v>
-      </c>
-      <c r="C15" s="9" t="s">
-        <v>267</v>
-      </c>
-      <c r="D15" s="9" t="s">
-        <v>267</v>
-      </c>
-      <c r="E15" s="2" t="s">
-        <v>279</v>
+        <v>259</v>
+      </c>
+      <c r="C15" s="8" t="s">
+        <v>254</v>
+      </c>
+      <c r="D15" s="8" t="s">
+        <v>254</v>
+      </c>
+      <c r="E15" s="8" t="s">
+        <v>265</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="H15" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="I15" s="2" t="s">
-        <v>184</v>
-      </c>
-      <c r="J15" s="4">
-        <v>261000000000</v>
+      <c r="I15" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="J15" s="2" t="s">
+        <v>59</v>
       </c>
       <c r="K15" s="3">
-        <v>34623</v>
+        <v>34536</v>
       </c>
       <c r="L15" s="2" t="s">
-        <v>185</v>
+        <v>60</v>
       </c>
       <c r="M15" s="2" t="s">
-        <v>155</v>
+        <v>61</v>
       </c>
       <c r="N15" s="2" t="s">
-        <v>186</v>
+        <v>62</v>
       </c>
       <c r="O15" s="2" t="s">
         <v>35</v>
       </c>
       <c r="Q15" s="2" t="s">
-        <v>187</v>
+        <v>63</v>
       </c>
       <c r="R15" s="2" t="s">
         <v>38</v>
       </c>
       <c r="S15" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="T15" s="2" t="s">
-        <v>38</v>
+        <v>55</v>
       </c>
       <c r="U15" s="2" t="s">
-        <v>38</v>
+        <v>54</v>
       </c>
       <c r="V15" s="2" t="s">
         <v>38</v>
       </c>
       <c r="X15" s="2" t="s">
-        <v>56</v>
+        <v>40</v>
       </c>
       <c r="Y15" s="2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="Z15" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="AA15" s="2" t="s">
         <v>42</v>
       </c>
       <c r="AB15" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="AC15" s="2" t="s">
         <v>42</v>
       </c>
       <c r="AD15" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="AE15" s="2" t="s">
-        <v>41</v>
+        <v>57</v>
       </c>
       <c r="AF15" s="2" t="s">
-        <v>41</v>
+        <v>57</v>
       </c>
     </row>
     <row r="16" spans="1:32" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A16" s="2" t="s">
-        <v>271</v>
+        <v>110</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>272</v>
-      </c>
-      <c r="C16" s="9" t="s">
+        <v>111</v>
+      </c>
+      <c r="C16" s="8" t="s">
+        <v>254</v>
+      </c>
+      <c r="D16" s="8" t="s">
+        <v>254</v>
+      </c>
+      <c r="E16" s="2" t="s">
         <v>267</v>
       </c>
-      <c r="D16" s="9" t="s">
-        <v>267</v>
-      </c>
-      <c r="E16" s="9" t="s">
-        <v>278</v>
-      </c>
       <c r="F16" s="2" t="s">
-        <v>279</v>
+        <v>266</v>
+      </c>
+      <c r="G16" s="8" t="s">
+        <v>254</v>
       </c>
       <c r="H16" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="I16" s="2" t="s">
-        <v>58</v>
+        <v>49</v>
+      </c>
+      <c r="I16" s="7" t="s">
+        <v>112</v>
       </c>
       <c r="J16" s="2" t="s">
-        <v>59</v>
+        <v>113</v>
       </c>
       <c r="K16" s="3">
-        <v>34536</v>
+        <v>32862</v>
       </c>
       <c r="L16" s="2" t="s">
-        <v>60</v>
+        <v>114</v>
       </c>
       <c r="M16" s="2" t="s">
-        <v>61</v>
+        <v>115</v>
       </c>
       <c r="N16" s="2" t="s">
-        <v>62</v>
+        <v>116</v>
       </c>
       <c r="O16" s="2" t="s">
-        <v>35</v>
+        <v>51</v>
       </c>
       <c r="Q16" s="2" t="s">
-        <v>63</v>
+        <v>117</v>
       </c>
       <c r="R16" s="2" t="s">
         <v>38</v>
       </c>
       <c r="S16" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="T16" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="U16" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="V16" s="2" t="s">
         <v>39</v>
-      </c>
-      <c r="T16" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="U16" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="V16" s="2" t="s">
-        <v>38</v>
       </c>
       <c r="X16" s="2" t="s">
         <v>40</v>
@@ -2799,78 +2811,75 @@
         <v>42</v>
       </c>
       <c r="AD16" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="AE16" s="2" t="s">
-        <v>57</v>
+        <v>43</v>
       </c>
       <c r="AF16" s="2" t="s">
-        <v>57</v>
+        <v>43</v>
       </c>
     </row>
     <row r="17" spans="1:32" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A17" s="2" t="s">
-        <v>110</v>
+        <v>73</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>111</v>
-      </c>
-      <c r="C17" s="9" t="s">
-        <v>267</v>
-      </c>
-      <c r="D17" s="9" t="s">
-        <v>267</v>
-      </c>
-      <c r="E17" s="2" t="s">
-        <v>280</v>
+        <v>74</v>
+      </c>
+      <c r="C17" s="8" t="s">
+        <v>254</v>
+      </c>
+      <c r="D17" s="8" t="s">
+        <v>254</v>
+      </c>
+      <c r="E17" s="8" t="s">
+        <v>265</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>279</v>
-      </c>
-      <c r="G17" s="9" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="H17" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="I17" s="2" t="s">
-        <v>112</v>
+        <v>33</v>
+      </c>
+      <c r="I17" s="7" t="s">
+        <v>75</v>
       </c>
       <c r="J17" s="2" t="s">
-        <v>113</v>
+        <v>76</v>
       </c>
       <c r="K17" s="3">
-        <v>32862</v>
+        <v>34015</v>
       </c>
       <c r="L17" s="2" t="s">
-        <v>114</v>
+        <v>77</v>
       </c>
       <c r="M17" s="2" t="s">
-        <v>115</v>
+        <v>78</v>
       </c>
       <c r="N17" s="2" t="s">
-        <v>116</v>
+        <v>79</v>
       </c>
       <c r="O17" s="2" t="s">
-        <v>51</v>
+        <v>35</v>
       </c>
       <c r="Q17" s="2" t="s">
-        <v>117</v>
+        <v>80</v>
       </c>
       <c r="R17" s="2" t="s">
         <v>38</v>
       </c>
       <c r="S17" s="2" t="s">
-        <v>54</v>
+        <v>39</v>
       </c>
       <c r="T17" s="2" t="s">
         <v>54</v>
       </c>
       <c r="U17" s="2" t="s">
-        <v>38</v>
+        <v>54</v>
       </c>
       <c r="V17" s="2" t="s">
-        <v>39</v>
+        <v>55</v>
       </c>
       <c r="X17" s="2" t="s">
         <v>40</v>
@@ -2891,75 +2900,78 @@
         <v>42</v>
       </c>
       <c r="AD17" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="AE17" s="2" t="s">
         <v>43</v>
       </c>
       <c r="AF17" s="2" t="s">
-        <v>43</v>
+        <v>57</v>
       </c>
     </row>
     <row r="18" spans="1:32" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A18" s="2" t="s">
-        <v>73</v>
+        <v>81</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="C18" s="9" t="s">
-        <v>267</v>
-      </c>
-      <c r="D18" s="9" t="s">
-        <v>267</v>
-      </c>
-      <c r="E18" s="9" t="s">
-        <v>278</v>
+        <v>82</v>
+      </c>
+      <c r="C18" s="8" t="s">
+        <v>254</v>
+      </c>
+      <c r="D18" s="8" t="s">
+        <v>254</v>
+      </c>
+      <c r="E18" s="8" t="s">
+        <v>265</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>279</v>
+        <v>266</v>
+      </c>
+      <c r="G18" s="8" t="s">
+        <v>254</v>
       </c>
       <c r="H18" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="I18" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="J18" s="2" t="s">
-        <v>76</v>
+      <c r="I18" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="J18" s="4">
+        <v>261000000000</v>
       </c>
       <c r="K18" s="3">
-        <v>34015</v>
+        <v>33595</v>
       </c>
       <c r="L18" s="2" t="s">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="M18" s="2" t="s">
-        <v>78</v>
+        <v>85</v>
       </c>
       <c r="N18" s="2" t="s">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="O18" s="2" t="s">
         <v>35</v>
       </c>
       <c r="Q18" s="2" t="s">
-        <v>80</v>
+        <v>87</v>
       </c>
       <c r="R18" s="2" t="s">
-        <v>38</v>
+        <v>55</v>
       </c>
       <c r="S18" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="T18" s="2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="U18" s="2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="V18" s="2" t="s">
-        <v>55</v>
+        <v>38</v>
       </c>
       <c r="X18" s="2" t="s">
         <v>40</v>
@@ -2986,60 +2998,60 @@
         <v>43</v>
       </c>
       <c r="AF18" s="2" t="s">
-        <v>57</v>
+        <v>43</v>
       </c>
     </row>
     <row r="19" spans="1:32" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A19" s="2" t="s">
-        <v>81</v>
+        <v>102</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="C19" s="9" t="s">
-        <v>267</v>
-      </c>
-      <c r="D19" s="9" t="s">
-        <v>267</v>
-      </c>
-      <c r="E19" s="9" t="s">
-        <v>278</v>
+        <v>103</v>
+      </c>
+      <c r="C19" s="8" t="s">
+        <v>254</v>
+      </c>
+      <c r="D19" s="8" t="s">
+        <v>254</v>
+      </c>
+      <c r="E19" s="8" t="s">
+        <v>265</v>
       </c>
       <c r="F19" s="2" t="s">
-        <v>279</v>
-      </c>
-      <c r="G19" s="9" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="H19" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="I19" s="2" t="s">
-        <v>83</v>
+      <c r="I19" s="7" t="s">
+        <v>104</v>
       </c>
       <c r="J19" s="4">
         <v>261000000000</v>
       </c>
       <c r="K19" s="3">
-        <v>33595</v>
+        <v>34371</v>
       </c>
       <c r="L19" s="2" t="s">
-        <v>84</v>
+        <v>105</v>
       </c>
       <c r="M19" s="2" t="s">
-        <v>85</v>
+        <v>106</v>
       </c>
       <c r="N19" s="2" t="s">
-        <v>86</v>
+        <v>107</v>
       </c>
       <c r="O19" s="2" t="s">
-        <v>35</v>
+        <v>51</v>
+      </c>
+      <c r="P19" s="2" t="s">
+        <v>108</v>
       </c>
       <c r="Q19" s="2" t="s">
-        <v>87</v>
+        <v>109</v>
       </c>
       <c r="R19" s="2" t="s">
-        <v>55</v>
+        <v>38</v>
       </c>
       <c r="S19" s="2" t="s">
         <v>38</v>
@@ -3048,10 +3060,10 @@
         <v>55</v>
       </c>
       <c r="U19" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="V19" s="2" t="s">
         <v>55</v>
-      </c>
-      <c r="V19" s="2" t="s">
-        <v>38</v>
       </c>
       <c r="X19" s="2" t="s">
         <v>40</v>
@@ -3060,268 +3072,270 @@
         <v>43</v>
       </c>
       <c r="Z19" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="AA19" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="AB19" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="AC19" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="AD19" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="AE19" s="2" t="s">
-        <v>43</v>
+        <v>57</v>
       </c>
       <c r="AF19" s="2" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="20" spans="1:32" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="2" t="s">
-        <v>102</v>
-      </c>
-      <c r="B20" s="2" t="s">
-        <v>103</v>
-      </c>
-      <c r="C20" s="9" t="s">
-        <v>267</v>
-      </c>
-      <c r="D20" s="9" t="s">
-        <v>267</v>
-      </c>
-      <c r="E20" s="9" t="s">
-        <v>278</v>
-      </c>
-      <c r="F20" s="2" t="s">
-        <v>279</v>
-      </c>
-      <c r="H20" s="2" t="s">
+    <row r="21" spans="1:32" x14ac:dyDescent="0.2">
+      <c r="A21" s="1" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="22" spans="1:32" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A22" s="2" t="s">
+        <v>183</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="C22" s="8" t="s">
+        <v>254</v>
+      </c>
+      <c r="D22" s="8" t="s">
+        <v>254</v>
+      </c>
+      <c r="E22" s="8" t="s">
+        <v>265</v>
+      </c>
+      <c r="F22" s="2" t="s">
+        <v>266</v>
+      </c>
+      <c r="H22" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="I20" s="2" t="s">
-        <v>104</v>
-      </c>
-      <c r="J20" s="4">
-        <v>261000000000</v>
-      </c>
-      <c r="K20" s="3">
-        <v>34371</v>
-      </c>
-      <c r="L20" s="2" t="s">
-        <v>105</v>
-      </c>
-      <c r="M20" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="N20" s="2" t="s">
-        <v>107</v>
-      </c>
-      <c r="O20" s="2" t="s">
+      <c r="I22" s="7" t="s">
+        <v>185</v>
+      </c>
+      <c r="J22" s="2" t="s">
+        <v>186</v>
+      </c>
+      <c r="K22" s="3">
+        <v>34386</v>
+      </c>
+      <c r="L22" s="2" t="s">
+        <v>187</v>
+      </c>
+      <c r="M22" s="2" t="s">
+        <v>188</v>
+      </c>
+      <c r="N22" s="2" t="s">
+        <v>189</v>
+      </c>
+      <c r="O22" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q22" s="2" t="s">
+        <v>190</v>
+      </c>
+      <c r="R22" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="S22" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="T22" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="U22" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="V22" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="X22" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="Y22" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="Z22" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="AA22" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="AB22" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="AC22" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="AD22" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="AE22" s="2" t="s">
+        <v>191</v>
+      </c>
+      <c r="AF22" s="2" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="23" spans="1:32" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A23" s="2" t="s">
+        <v>192</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>254</v>
+      </c>
+      <c r="D23" s="2" t="s">
+        <v>254</v>
+      </c>
+      <c r="E23" s="8" t="s">
+        <v>265</v>
+      </c>
+      <c r="F23" s="2" t="s">
+        <v>266</v>
+      </c>
+      <c r="H23" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="I23" s="7" t="s">
+        <v>194</v>
+      </c>
+      <c r="J23" s="2" t="s">
+        <v>195</v>
+      </c>
+      <c r="K23" s="3">
+        <v>28621</v>
+      </c>
+      <c r="L23" s="2" t="s">
+        <v>196</v>
+      </c>
+      <c r="M23" s="2" t="s">
+        <v>197</v>
+      </c>
+      <c r="N23" s="2" t="s">
+        <v>198</v>
+      </c>
+      <c r="O23" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="P20" s="2" t="s">
-        <v>108</v>
-      </c>
-      <c r="Q20" s="2" t="s">
-        <v>109</v>
-      </c>
-      <c r="R20" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="S20" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="T20" s="2" t="s">
+      <c r="Q23" s="2" t="s">
+        <v>199</v>
+      </c>
+      <c r="R23" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="S23" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="T23" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="U20" s="2" t="s">
+      <c r="U23" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="V20" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="X20" s="2" t="s">
+      <c r="V23" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="W23" s="2" t="s">
+        <v>200</v>
+      </c>
+      <c r="X23" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="Y20" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="Z20" s="2" t="s">
+      <c r="Y23" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="AA20" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="AB20" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="AC20" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="AD20" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="AE20" s="2" t="s">
+      <c r="Z23" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="AA23" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="AB23" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="AC23" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="AD23" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="AE23" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="AF20" s="2" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="21" spans="1:32" s="7" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="2" t="s">
-        <v>160</v>
-      </c>
-      <c r="B21" s="2" t="s">
-        <v>161</v>
-      </c>
-      <c r="C21" s="9" t="s">
-        <v>267</v>
-      </c>
-      <c r="D21" s="2"/>
-      <c r="E21" s="9" t="s">
-        <v>278</v>
-      </c>
-      <c r="F21" s="2" t="s">
-        <v>279</v>
-      </c>
-      <c r="G21" s="2"/>
-      <c r="H21" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="I21" s="2" t="s">
-        <v>162</v>
-      </c>
-      <c r="J21" s="4">
-        <v>261000000000</v>
-      </c>
-      <c r="K21" s="3">
-        <v>33324</v>
-      </c>
-      <c r="L21" s="2" t="s">
-        <v>163</v>
-      </c>
-      <c r="M21" s="2" t="s">
-        <v>164</v>
-      </c>
-      <c r="N21" s="2" t="s">
-        <v>165</v>
-      </c>
-      <c r="O21" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="P21" s="2"/>
-      <c r="Q21" s="2" t="s">
-        <v>166</v>
-      </c>
-      <c r="R21" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="S21" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="T21" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="U21" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="V21" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="W21" s="2"/>
-      <c r="X21" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="Y21" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="Z21" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="AA21" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="AB21" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="AC21" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="AD21" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="AE21" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="AF21" s="2" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="23" spans="1:32" x14ac:dyDescent="0.2">
-      <c r="A23" s="1" t="s">
-        <v>195</v>
+      <c r="AF23" s="2" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="24" spans="1:32" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A24" s="2" t="s">
-        <v>196</v>
+        <v>201</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>197</v>
-      </c>
-      <c r="C24" s="9" t="s">
-        <v>267</v>
-      </c>
-      <c r="D24" s="9" t="s">
-        <v>267</v>
-      </c>
-      <c r="E24" s="9" t="s">
-        <v>278</v>
+        <v>202</v>
+      </c>
+      <c r="C24" s="2" t="s">
+        <v>254</v>
+      </c>
+      <c r="D24" s="2" t="s">
+        <v>254</v>
+      </c>
+      <c r="E24" s="8" t="s">
+        <v>265</v>
       </c>
       <c r="F24" s="2" t="s">
-        <v>279</v>
+        <v>266</v>
       </c>
       <c r="H24" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="I24" s="2" t="s">
-        <v>198</v>
+      <c r="I24" s="7" t="s">
+        <v>203</v>
       </c>
       <c r="J24" s="2" t="s">
-        <v>199</v>
+        <v>204</v>
       </c>
       <c r="K24" s="3">
-        <v>34386</v>
+        <v>32812</v>
       </c>
       <c r="L24" s="2" t="s">
-        <v>200</v>
+        <v>205</v>
       </c>
       <c r="M24" s="2" t="s">
-        <v>201</v>
+        <v>206</v>
       </c>
       <c r="N24" s="2" t="s">
-        <v>202</v>
+        <v>207</v>
       </c>
       <c r="O24" s="2" t="s">
         <v>35</v>
       </c>
+      <c r="P24" s="2" t="s">
+        <v>208</v>
+      </c>
       <c r="Q24" s="2" t="s">
-        <v>203</v>
+        <v>209</v>
       </c>
       <c r="R24" s="2" t="s">
-        <v>39</v>
+        <v>55</v>
       </c>
       <c r="S24" s="2" t="s">
-        <v>39</v>
+        <v>55</v>
       </c>
       <c r="T24" s="2" t="s">
-        <v>38</v>
+        <v>54</v>
       </c>
       <c r="U24" s="2" t="s">
         <v>54</v>
@@ -3329,14 +3343,17 @@
       <c r="V24" s="2" t="s">
         <v>54</v>
       </c>
+      <c r="W24" s="2" t="s">
+        <v>210</v>
+      </c>
       <c r="X24" s="2" t="s">
         <v>40</v>
       </c>
       <c r="Y24" s="2" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="Z24" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="AA24" s="2" t="s">
         <v>42</v>
@@ -3351,75 +3368,72 @@
         <v>42</v>
       </c>
       <c r="AE24" s="2" t="s">
-        <v>204</v>
+        <v>191</v>
       </c>
       <c r="AF24" s="2" t="s">
-        <v>204</v>
+        <v>191</v>
       </c>
     </row>
     <row r="25" spans="1:32" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A25" s="2" t="s">
-        <v>205</v>
+        <v>211</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>206</v>
+        <v>212</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>267</v>
+        <v>254</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>267</v>
-      </c>
-      <c r="E25" s="9" t="s">
-        <v>278</v>
+        <v>254</v>
+      </c>
+      <c r="E25" s="8" t="s">
+        <v>265</v>
       </c>
       <c r="F25" s="2" t="s">
-        <v>279</v>
+        <v>266</v>
       </c>
       <c r="H25" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="I25" s="2" t="s">
-        <v>207</v>
+      <c r="I25" s="7" t="s">
+        <v>213</v>
       </c>
       <c r="J25" s="2" t="s">
-        <v>208</v>
+        <v>214</v>
       </c>
       <c r="K25" s="3">
-        <v>28621</v>
+        <v>35405</v>
       </c>
       <c r="L25" s="2" t="s">
-        <v>209</v>
+        <v>215</v>
       </c>
       <c r="M25" s="2" t="s">
-        <v>210</v>
+        <v>216</v>
       </c>
       <c r="N25" s="2" t="s">
-        <v>211</v>
+        <v>217</v>
       </c>
       <c r="O25" s="2" t="s">
         <v>51</v>
       </c>
       <c r="Q25" s="2" t="s">
-        <v>212</v>
+        <v>218</v>
       </c>
       <c r="R25" s="2" t="s">
-        <v>54</v>
+        <v>38</v>
       </c>
       <c r="S25" s="2" t="s">
-        <v>54</v>
+        <v>38</v>
       </c>
       <c r="T25" s="2" t="s">
-        <v>55</v>
+        <v>38</v>
       </c>
       <c r="U25" s="2" t="s">
         <v>54</v>
       </c>
       <c r="V25" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="W25" s="2" t="s">
-        <v>213</v>
+        <v>55</v>
       </c>
       <c r="X25" s="2" t="s">
         <v>40</v>
@@ -3443,69 +3457,69 @@
         <v>42</v>
       </c>
       <c r="AE25" s="2" t="s">
-        <v>57</v>
+        <v>191</v>
       </c>
       <c r="AF25" s="2" t="s">
-        <v>57</v>
+        <v>191</v>
       </c>
     </row>
     <row r="26" spans="1:32" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A26" s="2" t="s">
-        <v>214</v>
+        <v>257</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>215</v>
+        <v>219</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>267</v>
+        <v>254</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>267</v>
-      </c>
-      <c r="E26" s="9" t="s">
-        <v>278</v>
+        <v>254</v>
+      </c>
+      <c r="E26" s="8" t="s">
+        <v>265</v>
       </c>
       <c r="F26" s="2" t="s">
-        <v>279</v>
+        <v>266</v>
       </c>
       <c r="H26" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="I26" s="8" t="s">
-        <v>216</v>
+      <c r="I26" s="7" t="s">
+        <v>220</v>
       </c>
       <c r="J26" s="2" t="s">
-        <v>217</v>
+        <v>221</v>
       </c>
       <c r="K26" s="3">
-        <v>32812</v>
+        <v>33535</v>
       </c>
       <c r="L26" s="2" t="s">
-        <v>218</v>
+        <v>222</v>
       </c>
       <c r="M26" s="2" t="s">
-        <v>219</v>
+        <v>223</v>
       </c>
       <c r="N26" s="2" t="s">
-        <v>220</v>
+        <v>224</v>
       </c>
       <c r="O26" s="2" t="s">
         <v>35</v>
       </c>
       <c r="P26" s="2" t="s">
-        <v>221</v>
+        <v>225</v>
       </c>
       <c r="Q26" s="2" t="s">
-        <v>222</v>
+        <v>226</v>
       </c>
       <c r="R26" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="S26" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="T26" s="2" t="s">
         <v>55</v>
-      </c>
-      <c r="S26" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="T26" s="2" t="s">
-        <v>54</v>
       </c>
       <c r="U26" s="2" t="s">
         <v>54</v>
@@ -3513,14 +3527,11 @@
       <c r="V26" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="W26" s="2" t="s">
-        <v>223</v>
-      </c>
       <c r="X26" s="2" t="s">
-        <v>40</v>
+        <v>56</v>
       </c>
       <c r="Y26" s="2" t="s">
-        <v>43</v>
+        <v>167</v>
       </c>
       <c r="Z26" s="2" t="s">
         <v>42</v>
@@ -3535,66 +3546,66 @@
         <v>42</v>
       </c>
       <c r="AD26" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="AE26" s="2" t="s">
-        <v>204</v>
+        <v>43</v>
       </c>
       <c r="AF26" s="2" t="s">
-        <v>204</v>
+        <v>57</v>
       </c>
     </row>
     <row r="27" spans="1:32" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A27" s="2" t="s">
-        <v>224</v>
+        <v>227</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>225</v>
-      </c>
-      <c r="C27" s="2" t="s">
-        <v>267</v>
-      </c>
-      <c r="D27" s="2" t="s">
-        <v>267</v>
-      </c>
-      <c r="E27" s="9" t="s">
-        <v>278</v>
+        <v>228</v>
+      </c>
+      <c r="C27" s="8" t="s">
+        <v>254</v>
+      </c>
+      <c r="D27" s="8" t="s">
+        <v>254</v>
+      </c>
+      <c r="E27" s="8" t="s">
+        <v>265</v>
       </c>
       <c r="F27" s="2" t="s">
-        <v>279</v>
+        <v>266</v>
       </c>
       <c r="H27" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="I27" s="2" t="s">
-        <v>226</v>
+      <c r="I27" s="7" t="s">
+        <v>229</v>
       </c>
       <c r="J27" s="2" t="s">
-        <v>227</v>
+        <v>230</v>
       </c>
       <c r="K27" s="3">
-        <v>35405</v>
+        <v>34659</v>
       </c>
       <c r="L27" s="2" t="s">
-        <v>228</v>
+        <v>231</v>
       </c>
       <c r="M27" s="2" t="s">
-        <v>229</v>
+        <v>232</v>
       </c>
       <c r="N27" s="2" t="s">
-        <v>230</v>
+        <v>233</v>
       </c>
       <c r="O27" s="2" t="s">
         <v>51</v>
       </c>
       <c r="Q27" s="2" t="s">
-        <v>231</v>
+        <v>234</v>
       </c>
       <c r="R27" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="S27" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="T27" s="2" t="s">
         <v>38</v>
@@ -3603,23 +3614,23 @@
         <v>54</v>
       </c>
       <c r="V27" s="2" t="s">
-        <v>55</v>
+        <v>38</v>
       </c>
       <c r="X27" s="2" t="s">
         <v>40</v>
       </c>
       <c r="Y27" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="Z27" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="AA27" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="AB27" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="Z27" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="AA27" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="AB27" s="2" t="s">
-        <v>42</v>
-      </c>
       <c r="AC27" s="2" t="s">
         <v>42</v>
       </c>
@@ -3627,420 +3638,329 @@
         <v>42</v>
       </c>
       <c r="AE27" s="2" t="s">
-        <v>204</v>
+        <v>191</v>
       </c>
       <c r="AF27" s="2" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="28" spans="1:32" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="2" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="29" spans="1:32" x14ac:dyDescent="0.2">
+      <c r="A29" s="6" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="30" spans="1:32" x14ac:dyDescent="0.2">
+      <c r="A30" s="6" t="s">
+        <v>250</v>
+      </c>
+      <c r="J30" s="1" t="s">
+        <v>269</v>
+      </c>
+      <c r="K30" s="5" t="s">
+        <v>260</v>
+      </c>
+      <c r="L30" s="5">
+        <f>COUNTA(E36:E37,E16,E12:E13,E3:E8)</f>
+        <v>11</v>
+      </c>
+      <c r="M30" s="5" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="31" spans="1:32" x14ac:dyDescent="0.2">
+      <c r="K31" s="5" t="s">
+        <v>261</v>
+      </c>
+      <c r="L31" s="5">
+        <f>COUNTA(E9:E11,E15,E17:E19,E22:E27,E33:E35,E38)</f>
+        <v>17</v>
+      </c>
+      <c r="M31" s="5" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="32" spans="1:32" x14ac:dyDescent="0.2">
+      <c r="A32" s="1" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A33" s="5" t="s">
+        <v>236</v>
+      </c>
+      <c r="B33" s="5" t="s">
+        <v>261</v>
+      </c>
+      <c r="E33" s="5" t="s">
+        <v>265</v>
+      </c>
+      <c r="F33" s="5" t="s">
+        <v>266</v>
+      </c>
+      <c r="I33" s="9" t="s">
+        <v>275</v>
+      </c>
+      <c r="J33" s="1" t="s">
         <v>270</v>
       </c>
-      <c r="B28" s="2" t="s">
-        <v>232</v>
-      </c>
-      <c r="C28" s="2" t="s">
+      <c r="K33" s="5">
+        <f>COUNTA(F2,F14,F41:F50)</f>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A34" s="5" t="s">
+        <v>237</v>
+      </c>
+      <c r="B34" s="5" t="s">
+        <v>261</v>
+      </c>
+      <c r="E34" s="5" t="s">
+        <v>265</v>
+      </c>
+      <c r="F34" s="5" t="s">
+        <v>266</v>
+      </c>
+      <c r="I34" s="9" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="35" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A35" s="5" t="s">
+        <v>238</v>
+      </c>
+      <c r="B35" s="5" t="s">
+        <v>261</v>
+      </c>
+      <c r="E35" s="5" t="s">
+        <v>265</v>
+      </c>
+      <c r="F35" s="5" t="s">
+        <v>266</v>
+      </c>
+      <c r="I35" s="9" t="s">
+        <v>277</v>
+      </c>
+      <c r="J35" s="1" t="s">
+        <v>272</v>
+      </c>
+      <c r="K35" s="5">
+        <f>COUNTA(F2:F19,F22:F27,F33:F38,F41:F50)</f>
+        <v>40</v>
+      </c>
+    </row>
+    <row r="36" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A36" s="5" t="s">
+        <v>239</v>
+      </c>
+      <c r="B36" s="5" t="s">
+        <v>260</v>
+      </c>
+      <c r="E36" s="5" t="s">
         <v>267</v>
       </c>
-      <c r="D28" s="2" t="s">
+      <c r="F36" s="5" t="s">
+        <v>266</v>
+      </c>
+      <c r="I36" s="9" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="37" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A37" s="5" t="s">
+        <v>240</v>
+      </c>
+      <c r="B37" s="5" t="s">
+        <v>260</v>
+      </c>
+      <c r="E37" s="5" t="s">
         <v>267</v>
       </c>
-      <c r="E28" s="9" t="s">
-        <v>278</v>
-      </c>
-      <c r="F28" s="2" t="s">
+      <c r="F37" s="5" t="s">
+        <v>266</v>
+      </c>
+      <c r="I37" s="9" t="s">
         <v>279</v>
       </c>
-      <c r="H28" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="I28" s="8" t="s">
-        <v>233</v>
-      </c>
-      <c r="J28" s="2" t="s">
-        <v>234</v>
-      </c>
-      <c r="K28" s="3">
-        <v>33535</v>
-      </c>
-      <c r="L28" s="2" t="s">
-        <v>235</v>
-      </c>
-      <c r="M28" s="2" t="s">
-        <v>236</v>
-      </c>
-      <c r="N28" s="2" t="s">
-        <v>237</v>
-      </c>
-      <c r="O28" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="P28" s="2" t="s">
-        <v>238</v>
-      </c>
-      <c r="Q28" s="2" t="s">
-        <v>239</v>
-      </c>
-      <c r="R28" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="S28" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="T28" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="U28" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="V28" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="X28" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="Y28" s="2" t="s">
-        <v>180</v>
-      </c>
-      <c r="Z28" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="AA28" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="AB28" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="AC28" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="AD28" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="AE28" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="AF28" s="2" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="29" spans="1:32" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="2" t="s">
-        <v>240</v>
-      </c>
-      <c r="B29" s="2" t="s">
+    </row>
+    <row r="38" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A38" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="B38" s="5" t="s">
+        <v>261</v>
+      </c>
+      <c r="E38" s="5" t="s">
+        <v>265</v>
+      </c>
+      <c r="F38" s="5" t="s">
+        <v>266</v>
+      </c>
+      <c r="I38" s="9" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="40" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A40" s="1" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="41" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A41" s="5" t="s">
         <v>241</v>
       </c>
-      <c r="C29" s="9" t="s">
-        <v>267</v>
-      </c>
-      <c r="D29" s="9" t="s">
-        <v>267</v>
-      </c>
-      <c r="E29" s="9" t="s">
-        <v>278</v>
-      </c>
-      <c r="F29" s="2" t="s">
-        <v>279</v>
-      </c>
-      <c r="H29" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="I29" s="2" t="s">
+      <c r="F41" s="5" t="s">
+        <v>254</v>
+      </c>
+      <c r="I41" s="10" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="42" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A42" s="5" t="s">
         <v>242</v>
       </c>
-      <c r="J29" s="2" t="s">
+      <c r="F42" s="5" t="s">
+        <v>254</v>
+      </c>
+      <c r="I42" s="9" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="43" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A43" s="5" t="s">
         <v>243</v>
       </c>
-      <c r="K29" s="3">
-        <v>34659</v>
-      </c>
-      <c r="L29" s="2" t="s">
+      <c r="F43" s="5" t="s">
+        <v>254</v>
+      </c>
+      <c r="I43" s="9" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="44" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A44" s="5" t="s">
         <v>244</v>
       </c>
-      <c r="M29" s="2" t="s">
+      <c r="F44" s="5" t="s">
+        <v>254</v>
+      </c>
+      <c r="I44" s="9" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="45" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A45" s="5" t="s">
         <v>245</v>
       </c>
-      <c r="N29" s="2" t="s">
+      <c r="F45" s="5" t="s">
+        <v>254</v>
+      </c>
+      <c r="I45" s="9" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="46" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A46" s="5" t="s">
         <v>246</v>
       </c>
-      <c r="O29" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="Q29" s="2" t="s">
+      <c r="F46" s="5" t="s">
+        <v>254</v>
+      </c>
+      <c r="I46" s="9" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="47" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A47" s="5" t="s">
         <v>247</v>
       </c>
-      <c r="R29" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="S29" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="T29" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="U29" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="V29" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="X29" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="Y29" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="Z29" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="AA29" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="AB29" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="AC29" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="AD29" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="AE29" s="2" t="s">
-        <v>204</v>
-      </c>
-      <c r="AF29" s="2" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="31" spans="1:32" x14ac:dyDescent="0.2">
-      <c r="A31" s="6" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="32" spans="1:32" x14ac:dyDescent="0.2">
-      <c r="A32" s="6" t="s">
-        <v>263</v>
-      </c>
-      <c r="J32" s="1" t="s">
-        <v>284</v>
-      </c>
-      <c r="K32" s="5" t="s">
-        <v>273</v>
-      </c>
-      <c r="L32" s="5">
-        <f>COUNTA(E38:E39,E17,E13:E14,E4:E9)</f>
-        <v>11</v>
-      </c>
-      <c r="M32" s="5" t="s">
-        <v>283</v>
-      </c>
-    </row>
-    <row r="33" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="K33" s="5" t="s">
-        <v>274</v>
-      </c>
-      <c r="L33" s="5">
-        <f>COUNTA(E40,E35:E37,E24:E29,E18:E21,E16,E10:E12,E2)</f>
-        <v>19</v>
-      </c>
-      <c r="M33" s="5" t="s">
-        <v>282</v>
-      </c>
-    </row>
-    <row r="34" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A34" s="1" t="s">
+      <c r="F47" s="5" t="s">
+        <v>254</v>
+      </c>
+      <c r="I47" s="9" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="48" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A48" s="5" t="s">
         <v>248</v>
       </c>
-    </row>
-    <row r="35" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A35" s="5" t="s">
+      <c r="F48" s="5" t="s">
+        <v>254</v>
+      </c>
+      <c r="I48" s="9" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A49" s="5" t="s">
         <v>249</v>
       </c>
-      <c r="B35" s="5" t="s">
-        <v>274</v>
-      </c>
-      <c r="E35" s="5" t="s">
-        <v>278</v>
-      </c>
-      <c r="F35" s="5" t="s">
-        <v>279</v>
-      </c>
-      <c r="J35" s="1" t="s">
-        <v>285</v>
-      </c>
-      <c r="K35" s="5">
-        <f>COUNTA(F3,F15,F43:F52)</f>
-        <v>12</v>
-      </c>
-    </row>
-    <row r="36" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A36" s="5" t="s">
-        <v>250</v>
-      </c>
-      <c r="B36" s="5" t="s">
-        <v>274</v>
-      </c>
-      <c r="E36" s="5" t="s">
-        <v>278</v>
-      </c>
-      <c r="F36" s="5" t="s">
-        <v>279</v>
-      </c>
-    </row>
-    <row r="37" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A37" s="5" t="s">
-        <v>251</v>
-      </c>
-      <c r="B37" s="5" t="s">
-        <v>274</v>
-      </c>
-      <c r="E37" s="5" t="s">
-        <v>278</v>
-      </c>
-      <c r="F37" s="5" t="s">
-        <v>279</v>
-      </c>
-      <c r="J37" s="1" t="s">
-        <v>287</v>
-      </c>
-      <c r="K37" s="5">
-        <f>COUNTA(A2:A21,A24:A29,A35:A40,A43:A52)</f>
-        <v>42</v>
-      </c>
-    </row>
-    <row r="38" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A38" s="5" t="s">
-        <v>252</v>
-      </c>
-      <c r="B38" s="5" t="s">
-        <v>273</v>
-      </c>
-      <c r="E38" s="5" t="s">
-        <v>280</v>
-      </c>
-      <c r="F38" s="5" t="s">
-        <v>279</v>
-      </c>
-    </row>
-    <row r="39" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A39" s="5" t="s">
-        <v>253</v>
-      </c>
-      <c r="B39" s="5" t="s">
-        <v>273</v>
-      </c>
-      <c r="E39" s="5" t="s">
-        <v>280</v>
-      </c>
-      <c r="F39" s="5" t="s">
-        <v>279</v>
-      </c>
-    </row>
-    <row r="40" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A40" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="B40" s="5" t="s">
-        <v>274</v>
-      </c>
-      <c r="E40" s="5" t="s">
-        <v>278</v>
-      </c>
-      <c r="F40" s="5" t="s">
-        <v>279</v>
-      </c>
-    </row>
-    <row r="42" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A42" s="1" t="s">
-        <v>275</v>
-      </c>
-    </row>
-    <row r="43" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A43" s="5" t="s">
-        <v>254</v>
-      </c>
-      <c r="F43" s="5" t="s">
-        <v>267</v>
-      </c>
-    </row>
-    <row r="44" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A44" s="5" t="s">
-        <v>255</v>
-      </c>
-      <c r="F44" s="5" t="s">
-        <v>267</v>
-      </c>
-    </row>
-    <row r="45" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A45" s="5" t="s">
-        <v>256</v>
-      </c>
-      <c r="F45" s="5" t="s">
-        <v>267</v>
-      </c>
-    </row>
-    <row r="46" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A46" s="5" t="s">
-        <v>257</v>
-      </c>
-      <c r="F46" s="5" t="s">
-        <v>267</v>
-      </c>
-    </row>
-    <row r="47" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A47" s="5" t="s">
-        <v>258</v>
-      </c>
-      <c r="F47" s="5" t="s">
-        <v>267</v>
-      </c>
-    </row>
-    <row r="48" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A48" s="5" t="s">
-        <v>259</v>
-      </c>
-      <c r="F48" s="5" t="s">
-        <v>267</v>
-      </c>
-    </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A49" s="5" t="s">
-        <v>260</v>
-      </c>
       <c r="F49" s="5" t="s">
-        <v>267</v>
-      </c>
-    </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.2">
+        <v>254</v>
+      </c>
+      <c r="I49" s="9" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A50" s="5" t="s">
-        <v>261</v>
+        <v>268</v>
       </c>
       <c r="F50" s="5" t="s">
-        <v>267</v>
-      </c>
-    </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A51" s="5" t="s">
-        <v>262</v>
-      </c>
-      <c r="F51" s="5" t="s">
-        <v>267</v>
-      </c>
-    </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A52" s="5" t="s">
-        <v>281</v>
-      </c>
-      <c r="F52" s="5" t="s">
-        <v>267</v>
+        <v>254</v>
+      </c>
+      <c r="I50" s="9" t="s">
+        <v>290</v>
       </c>
     </row>
   </sheetData>
-  <sortState ref="A2:AF21">
-    <sortCondition ref="A2:A21"/>
+  <sortState ref="A2:AF19">
+    <sortCondition ref="A2:A19"/>
   </sortState>
+  <hyperlinks>
+    <hyperlink ref="I2" r:id="rId1" xr:uid="{1241E72C-13A7-A04B-A227-15A7BC19BF0C}"/>
+    <hyperlink ref="I3" r:id="rId2" xr:uid="{904F7A54-383B-1643-997C-E2BD5D86B64B}"/>
+    <hyperlink ref="I4" r:id="rId3" xr:uid="{E30E91E2-9D90-4741-AC96-EDC9EAF4BCCE}"/>
+    <hyperlink ref="I5" r:id="rId4" xr:uid="{30FB953B-AB2F-8B43-AD36-CE7E942BC377}"/>
+    <hyperlink ref="I6" r:id="rId5" xr:uid="{1FBFAB99-A98A-FF43-808A-A4BB22617F00}"/>
+    <hyperlink ref="I7" r:id="rId6" xr:uid="{ABF5EDAB-9FEF-7D46-8DD5-8C55F146A947}"/>
+    <hyperlink ref="I8" r:id="rId7" xr:uid="{7793B796-1CBD-164B-9977-B1DE8D441F93}"/>
+    <hyperlink ref="I9" r:id="rId8" xr:uid="{A75F8716-658B-274C-A199-EF6364F6E12E}"/>
+    <hyperlink ref="I10" r:id="rId9" xr:uid="{ECCDCDA4-5EA2-DD40-8E43-674C2D24A7BF}"/>
+    <hyperlink ref="I11" r:id="rId10" xr:uid="{7E87E65E-1826-1E42-8B5A-572C56B4DBB7}"/>
+    <hyperlink ref="I12" r:id="rId11" xr:uid="{4A60AA0B-D7F8-9B42-829F-B7D34D5F87F9}"/>
+    <hyperlink ref="I13" r:id="rId12" xr:uid="{D276086E-FFD7-3F41-9E6A-F3D5EE4CC0FD}"/>
+    <hyperlink ref="I14" r:id="rId13" xr:uid="{8C8FD189-1A97-6944-9210-4EFC1702A14C}"/>
+    <hyperlink ref="I15" r:id="rId14" xr:uid="{F5070A53-E155-B648-9D4E-A118BAAC4878}"/>
+    <hyperlink ref="I16" r:id="rId15" xr:uid="{F61352A8-97EF-FB46-9C87-E5A2DBC1D29A}"/>
+    <hyperlink ref="I17" r:id="rId16" xr:uid="{91E9C733-37BD-7348-8E94-77BF8A74C7CB}"/>
+    <hyperlink ref="I18" r:id="rId17" xr:uid="{7A54AFD6-0C7B-0B46-A61D-60976FFBBC63}"/>
+    <hyperlink ref="I19" r:id="rId18" xr:uid="{0F8A3D9D-CFE8-D744-B8BA-B7027F6346C5}"/>
+    <hyperlink ref="I22" r:id="rId19" xr:uid="{5033E235-8709-6748-BD3C-6E435F6F72A1}"/>
+    <hyperlink ref="I23" r:id="rId20" xr:uid="{C2799A35-C997-B948-8E47-70DC3D33CFDF}"/>
+    <hyperlink ref="I24" r:id="rId21" xr:uid="{37B96A03-3BAB-104F-B4B9-B3B6453830B4}"/>
+    <hyperlink ref="I25" r:id="rId22" xr:uid="{AA1335D8-B3FC-1D45-A2DB-985182FA2986}"/>
+    <hyperlink ref="I26" r:id="rId23" xr:uid="{6A194747-C433-624A-88AA-8D8215936DBD}"/>
+    <hyperlink ref="I27" r:id="rId24" xr:uid="{C57DC329-7D2C-9849-AAE9-D6465F513134}"/>
+    <hyperlink ref="I33" r:id="rId25" display="mailto:rantsohasina@yahoo.com" xr:uid="{246A09BD-C5E7-E049-B28C-6A5C848B3297}"/>
+    <hyperlink ref="I34" r:id="rId26" display="mailto:soafy@pasteur.mg" xr:uid="{EED9CA96-5516-BC4F-9023-BA1945E82507}"/>
+    <hyperlink ref="I35" r:id="rId27" display="mailto:elimanambina@gmail.com" xr:uid="{4570A80D-CB66-784B-9A8E-64535FF9AC6D}"/>
+    <hyperlink ref="I36" r:id="rId28" display="mailto:jean.marius.g@gmail.com" xr:uid="{F70DCF25-8AF0-6047-AE70-759436709853}"/>
+    <hyperlink ref="I37" r:id="rId29" display="mailto:sederamioramalala@gmail.com" xr:uid="{620AC86A-FA39-9A4E-A23C-9EA5AD6773E7}"/>
+    <hyperlink ref="I38" r:id="rId30" xr:uid="{39681355-BC6E-D44B-BDFC-5947F8F7F28A}"/>
+    <hyperlink ref="I41" r:id="rId31" xr:uid="{CD4135D0-8994-3E4C-80D8-1892E2997C04}"/>
+    <hyperlink ref="I42" r:id="rId32" display="mailto:f.rasambainarivo@gmail.com" xr:uid="{0EE9874D-7547-CD4D-AC21-E817DB3BA4FC}"/>
+    <hyperlink ref="I43" r:id="rId33" display="mailto:amywesolowski@gmail.com" xr:uid="{3ADC6BFE-B966-784B-A7B0-1772E4234B63}"/>
+    <hyperlink ref="I44" r:id="rId34" display="mailto:juliorakotonirina@yahoo.fr" xr:uid="{5B073B2B-FE6E-6A40-B796-4CE420787F22}"/>
+    <hyperlink ref="I45" r:id="rId35" display="mailto:andres.garchitorena@gmail.com" xr:uid="{30497632-CE3D-2147-8F77-1BA4D086CB71}"/>
+    <hyperlink ref="I46" r:id="rId36" display="mailto:gammarinema@gmail.com" xr:uid="{1130B29F-A374-734F-800F-4CF5A5F61C6D}"/>
+    <hyperlink ref="I47" r:id="rId37" display="mailto:benjaminrice@g.harvard.edu" xr:uid="{5DF87471-1E0F-594F-AED9-512865ED7D3C}"/>
+    <hyperlink ref="I48" r:id="rId38" display="mailto:sarah_guth@berkeley.edu" xr:uid="{E44EB196-0B41-E145-8A4D-4F89B19896B4}"/>
+    <hyperlink ref="I49" r:id="rId39" display="mailto:Etoomey11@gmail.com" xr:uid="{6489308B-490E-6D44-A4C6-3AAC08E80CB1}"/>
+    <hyperlink ref="I50" r:id="rId40" display="mailto:calistusnn@ufl.edu" xr:uid="{31975A45-9878-E54B-A90A-5DCA718C1C9E}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>